--- a/backtests/backtests.xlsx
+++ b/backtests/backtests.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
   <si>
     <t>jbt1</t>
   </si>
@@ -118,6 +118,81 @@
   </si>
   <si>
     <t>BTC dominance (%)</t>
+  </si>
+  <si>
+    <t>XMR</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>LTC</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>MAID</t>
+  </si>
+  <si>
+    <t>LSK</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>STEEM</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>ZEC</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>GNT</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>XEM</t>
+  </si>
+  <si>
+    <t>DGB</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>VTC</t>
+  </si>
+  <si>
+    <t>BCHSV</t>
+  </si>
+  <si>
+    <t>ZRX</t>
+  </si>
+  <si>
+    <t>BCHABC</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>Assets were selected by picking the 11 cryptocurrencies with largest 30 day volume before the beginning of the backtest period</t>
   </si>
 </sst>
 </file>
@@ -127,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +256,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Damascus Regular"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -358,18 +439,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,10 +556,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -761,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S24"/>
+  <dimension ref="B3:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -778,539 +875,823 @@
     <col min="13" max="13" width="1.33203125" style="1" customWidth="1"/>
     <col min="14" max="17" width="10.83203125" style="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="19" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="5.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="32" t="s">
+    <row r="3" spans="2:33" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="32" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33"/>
-    </row>
-    <row r="4" spans="2:19" ht="21" x14ac:dyDescent="0.3">
-      <c r="C4" s="30" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="42"/>
+    </row>
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.3">
+      <c r="C4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="28" t="s">
+      <c r="M4" s="25"/>
+      <c r="N4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="24">
+        <v>1</v>
+      </c>
+      <c r="X4" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="24">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="24">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="24">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="24">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="18">
+      <c r="F5" s="28"/>
+      <c r="G5" s="17">
         <v>610.57000000000005</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>688.31</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>688.31</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>596.03</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <f>H5/G5 -1</f>
         <v>0.12732364839412336</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <f>I5/J5-1</f>
         <v>0.15482442158951737</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="5">
+      <c r="M5" s="13"/>
+      <c r="N5" s="4">
         <v>0.80079999999999996</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>0.82189999999999996</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>0.82220000000000004</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>0.78590000000000004</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="20">
         <f>O5/N5 -1</f>
         <v>2.6348651348651275E-2</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="20">
         <f>P5/Q5-1</f>
         <v>4.6189082580480934E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U5" s="26">
+        <v>1</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="11">
+      <c r="F6" s="28"/>
+      <c r="G6" s="10">
         <v>768.08</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>919.75</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1183.32</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>760.96</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <f t="shared" ref="K6:K11" si="0">H6/G6 -1</f>
         <v>0.19746640974898444</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <f t="shared" ref="L6:L11" si="1">I6/J6-1</f>
         <v>0.55503574432296032</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7">
+      <c r="M6" s="14"/>
+      <c r="N6" s="6">
         <v>0.85829999999999995</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>0.85270000000000001</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>0.88109999999999999</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>0.84540000000000004</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="20">
         <f t="shared" ref="R6:R10" si="2">O6/N6 -1</f>
         <v>-6.5245252242804863E-3</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="20">
         <f t="shared" ref="S6:S11" si="3">P6/Q6-1</f>
         <v>4.2228530872959524E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="28">
+        <v>2</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>3</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="11">
+      <c r="F7" s="28"/>
+      <c r="G7" s="10">
         <v>1273.21</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>1281.08</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>1293.47</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>905.92</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <f t="shared" si="0"/>
         <v>6.1812269774821349E-3</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <f t="shared" si="1"/>
         <v>0.4277971564818086</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="5">
+      <c r="M7" s="14"/>
+      <c r="N7" s="4">
         <v>0.8448</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>0.65910000000000002</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>0.84709999999999996</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>0.6452</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <f t="shared" si="2"/>
         <v>-0.21981534090909083</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="20">
         <f t="shared" si="3"/>
         <v>0.31292622442653428</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="29">
+      <c r="U7" s="28">
+        <v>3</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="28">
         <v>4</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="11">
+      <c r="F8" s="28"/>
+      <c r="G8" s="10">
         <v>2054.08</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>2228.41</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>2990.58</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>1868.12</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <f t="shared" si="0"/>
         <v>8.487011216700413E-2</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <f t="shared" si="1"/>
         <v>0.6008500524591569</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7">
+      <c r="M8" s="14"/>
+      <c r="N8" s="6">
         <v>0.4869</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>0.4647</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>0.49409999999999998</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>0.371</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <f t="shared" si="2"/>
         <v>-4.5594577942082548E-2</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <f t="shared" si="3"/>
         <v>0.33180592991913738</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="29">
+      <c r="U8" s="28">
+        <v>4</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="28">
         <v>5</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="10">
+      <c r="F9" s="28"/>
+      <c r="G9" s="9">
         <v>8077.95</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>13980.6</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>19974.099999999999</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>7986.32</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
         <v>0.73071138098156108</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <f t="shared" si="1"/>
         <v>1.5010392771639505</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="5">
+      <c r="M9" s="13"/>
+      <c r="N9" s="4">
         <v>0.56269999999999998</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>0.32729999999999998</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>0.67459999999999998</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>0.3251</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="20">
         <f t="shared" si="2"/>
         <v>-0.41834014572596412</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <f t="shared" si="3"/>
         <v>1.0750538295908951</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="29">
+      <c r="U9" s="28">
+        <v>5</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="28">
         <v>6</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="11">
+      <c r="F10" s="28"/>
+      <c r="G10" s="10">
         <v>6411.76</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>3865.95</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>6421.81</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>3199.01</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <f t="shared" si="0"/>
         <v>-0.39705322719502922</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <f t="shared" si="1"/>
         <v>1.0074366757215514</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="5">
+      <c r="M10" s="14"/>
+      <c r="N10" s="4">
         <v>0.5232</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>0.51719999999999999</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>0.55330000000000001</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>0.50690000000000002</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="20">
         <f t="shared" si="2"/>
         <v>-1.1467889908256867E-2</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="20">
         <f t="shared" si="3"/>
         <v>9.153679226671918E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="30">
+      <c r="U10" s="28">
+        <v>6</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="29">
         <v>7</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="11">
+      <c r="F11" s="29"/>
+      <c r="G11" s="10">
         <v>3913.23</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>5281.63</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>5633.01</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>3870.04</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>0.34968555387748745</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <f t="shared" si="1"/>
         <v>0.45554309516180713</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="5">
+      <c r="M11" s="15"/>
+      <c r="N11" s="4">
         <v>0.51590000000000003</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>0.54500000000000004</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>0.54900000000000004</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>0.50060000000000004</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="20">
         <f>O11/N11 -1</f>
         <v>5.640628028687722E-2</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="20">
         <f t="shared" si="3"/>
         <v>9.6683979224930106E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="U11" s="29">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="2">
+      <c r="V11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="2">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="W11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="40"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="9"/>
+      <c r="N24" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="U12:AG12"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="N3:S3"/>
+    <mergeCell ref="W3:AG3"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G11">
     <cfRule type="colorScale" priority="21">
@@ -1546,31 +1927,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="11:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="K3" s="23"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="11:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="K4" s="26"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K5" s="14"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K6" s="15"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K7" s="15"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K9" s="14"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K11" s="16"/>
+      <c r="K11" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:K11">
